--- a/biology/Médecine/Claudio_Naranjo/Claudio_Naranjo.xlsx
+++ b/biology/Médecine/Claudio_Naranjo/Claudio_Naranjo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claudio Benjamín Naranjo Cohen, dit Claudio Naranjo, né le 24 novembre 1932 à Valparaiso au Chili et mort le 12 juillet 2019 à Berkeley en Californie[1], est un psychiatre chilien qui a contribué au développement de l'ennéagramme des personnalités. C'est le fondateur de l'Institut des chercheurs de Vérité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudio Benjamín Naranjo Cohen, dit Claudio Naranjo, né le 24 novembre 1932 à Valparaiso au Chili et mort le 12 juillet 2019 à Berkeley en Californie, est un psychiatre chilien qui a contribué au développement de l'ennéagramme des personnalités. C'est le fondateur de l'Institut des chercheurs de Vérité.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claudio Naranjo est né à Valparaíso au Chili. Il a grandi dans un environnement musical et, après avoir commencé très tôt au piano, il a étudié la composition musicale. Peu de temps après son entrée à la faculté de médecine, il a cessé de composer alors qu'il s'intéressait davantage à la philosophie. Le poète visionnaire et sculpteur chilien Tótila Albert Schneider, le poète David Rosenmann-Taub et le philosophe polonais Bogumił Jasinowski ont été d’importantes influences pour lui à cette époque.
 En 1970, après avoir perdu son fils, il se retire dans le désert d'Arica au Chili. Puis, la même année, il suit les enseignements d'Oscar Ichazo et développe à son contact l'ennéagramme de personnalités.
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1974 : (en-US) The healing journey: new approaches to consciousness.  (ISBN 0394488261)
 1994 : (en-US) Character and Neurosis: An Integrative View.</t>
